--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Clcf1-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Clcf1-Lifr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.672484</v>
+        <v>1.7872655</v>
       </c>
       <c r="H2">
-        <v>7.344968</v>
+        <v>3.574531</v>
       </c>
       <c r="I2">
-        <v>0.16941414656804</v>
+        <v>0.101191370732167</v>
       </c>
       <c r="J2">
-        <v>0.139073352017148</v>
+        <v>0.07984252496841394</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.7631495</v>
+        <v>31.3552725</v>
       </c>
       <c r="N2">
-        <v>63.52629899999999</v>
+        <v>62.710545</v>
       </c>
       <c r="O2">
-        <v>0.2494255238736205</v>
+        <v>0.299218473999331</v>
       </c>
       <c r="P2">
-        <v>0.1905320411699034</v>
+        <v>0.2323911939229701</v>
       </c>
       <c r="Q2">
-        <v>116.649658328358</v>
+        <v>56.04019678234874</v>
       </c>
       <c r="R2">
-        <v>466.5986333134319</v>
+        <v>224.160787129395</v>
       </c>
       <c r="S2">
-        <v>0.04225621225933571</v>
+        <v>0.03027832753237958</v>
       </c>
       <c r="T2">
-        <v>0.02649792963216771</v>
+        <v>0.01855469970323427</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.672484</v>
+        <v>1.7872655</v>
       </c>
       <c r="H3">
-        <v>7.344968</v>
+        <v>3.574531</v>
       </c>
       <c r="I3">
-        <v>0.16941414656804</v>
+        <v>0.101191370732167</v>
       </c>
       <c r="J3">
-        <v>0.139073352017148</v>
+        <v>0.07984252496841394</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>53.453339</v>
       </c>
       <c r="O3">
-        <v>0.139917139754138</v>
+        <v>0.1700322917594261</v>
       </c>
       <c r="P3">
-        <v>0.1603205907999899</v>
+        <v>0.1980860678117095</v>
       </c>
       <c r="Q3">
-        <v>65.43551074135867</v>
+        <v>31.84510288483483</v>
       </c>
       <c r="R3">
-        <v>392.613064448152</v>
+        <v>191.070617309009</v>
       </c>
       <c r="S3">
-        <v>0.02370394282168847</v>
+        <v>0.01720580067186806</v>
       </c>
       <c r="T3">
-        <v>0.02229632195992413</v>
+        <v>0.01581569181515136</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.672484</v>
+        <v>1.7872655</v>
       </c>
       <c r="H4">
-        <v>7.344968</v>
+        <v>3.574531</v>
       </c>
       <c r="I4">
-        <v>0.16941414656804</v>
+        <v>0.101191370732167</v>
       </c>
       <c r="J4">
-        <v>0.139073352017148</v>
+        <v>0.07984252496841394</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.32746566666667</v>
+        <v>26.80116433333333</v>
       </c>
       <c r="N4">
-        <v>39.982397</v>
+        <v>80.403493</v>
       </c>
       <c r="O4">
-        <v>0.1046561867492399</v>
+        <v>0.2557593302123367</v>
       </c>
       <c r="P4">
-        <v>0.1199177007191215</v>
+        <v>0.2979572850761729</v>
       </c>
       <c r="Q4">
-        <v>48.94490442138267</v>
+        <v>47.90079637279717</v>
       </c>
       <c r="R4">
-        <v>293.669426528296</v>
+        <v>287.404778236783</v>
       </c>
       <c r="S4">
-        <v>0.01773023856118789</v>
+        <v>0.02588063720172728</v>
       </c>
       <c r="T4">
-        <v>0.01667735660519738</v>
+        <v>0.02378966197321516</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.672484</v>
+        <v>1.7872655</v>
       </c>
       <c r="H5">
-        <v>7.344968</v>
+        <v>3.574531</v>
       </c>
       <c r="I5">
-        <v>0.16941414656804</v>
+        <v>0.101191370732167</v>
       </c>
       <c r="J5">
-        <v>0.139073352017148</v>
+        <v>0.07984252496841394</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.857219</v>
+        <v>13.167359</v>
       </c>
       <c r="N5">
-        <v>33.714438</v>
+        <v>26.334718</v>
       </c>
       <c r="O5">
-        <v>0.1323741740449054</v>
+        <v>0.1256540528098219</v>
       </c>
       <c r="P5">
-        <v>0.1011184468504321</v>
+        <v>0.09759054968577822</v>
       </c>
       <c r="Q5">
-        <v>61.907867061996</v>
+        <v>23.5335664668145</v>
       </c>
       <c r="R5">
-        <v>247.631468247984</v>
+        <v>94.13426586725801</v>
       </c>
       <c r="S5">
-        <v>0.02242605772346684</v>
+        <v>0.01271510584187798</v>
       </c>
       <c r="T5">
-        <v>0.01406288135425741</v>
+        <v>0.007791875899967989</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.672484</v>
+        <v>1.7872655</v>
       </c>
       <c r="H6">
-        <v>7.344968</v>
+        <v>3.574531</v>
       </c>
       <c r="I6">
-        <v>0.16941414656804</v>
+        <v>0.101191370732167</v>
       </c>
       <c r="J6">
-        <v>0.139073352017148</v>
+        <v>0.07984252496841394</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.53771866666667</v>
+        <v>5.16573</v>
       </c>
       <c r="N6">
-        <v>70.613156</v>
+        <v>15.49719</v>
       </c>
       <c r="O6">
-        <v>0.184833931824778</v>
+        <v>0.04929575552859776</v>
       </c>
       <c r="P6">
-        <v>0.211787385034485</v>
+        <v>0.05742910520951641</v>
       </c>
       <c r="Q6">
-        <v>86.44189519983466</v>
+        <v>9.232531011315</v>
       </c>
       <c r="R6">
-        <v>518.6513711990081</v>
+        <v>55.39518606788999</v>
       </c>
       <c r="S6">
-        <v>0.03131348281691005</v>
+        <v>0.004988305073216606</v>
       </c>
       <c r="T6">
-        <v>0.02945398155169219</v>
+        <v>0.004585284766604485</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.672484</v>
+        <v>1.7872655</v>
       </c>
       <c r="H7">
-        <v>7.344968</v>
+        <v>3.574531</v>
       </c>
       <c r="I7">
-        <v>0.16941414656804</v>
+        <v>0.101191370732167</v>
       </c>
       <c r="J7">
-        <v>0.139073352017148</v>
+        <v>0.07984252496841394</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.04189266666667</v>
+        <v>10.483258</v>
       </c>
       <c r="N7">
-        <v>72.12567800000001</v>
+        <v>31.449774</v>
       </c>
       <c r="O7">
-        <v>0.1887930437533183</v>
+        <v>0.1000400956904865</v>
       </c>
       <c r="P7">
-        <v>0.2163238354260682</v>
+        <v>0.1165457982938529</v>
       </c>
       <c r="Q7">
-        <v>88.29346614805067</v>
+        <v>18.736365350999</v>
       </c>
       <c r="R7">
-        <v>529.7607968883041</v>
+        <v>112.418192105994</v>
       </c>
       <c r="S7">
-        <v>0.03198421238545105</v>
+        <v>0.01012319441109748</v>
       </c>
       <c r="T7">
-        <v>0.03008488091390918</v>
+        <v>0.009305310810240683</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>16.585895</v>
       </c>
       <c r="I8">
-        <v>0.2550394815872238</v>
+        <v>0.3130199831101003</v>
       </c>
       <c r="J8">
-        <v>0.3140457540256751</v>
+        <v>0.3704709053190453</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.7631495</v>
+        <v>31.3552725</v>
       </c>
       <c r="N8">
-        <v>63.52629899999999</v>
+        <v>62.710545</v>
       </c>
       <c r="O8">
-        <v>0.2494255238736205</v>
+        <v>0.299218473999331</v>
       </c>
       <c r="P8">
-        <v>0.1905320411699034</v>
+        <v>0.2323911939229701</v>
       </c>
       <c r="Q8">
-        <v>175.6067541587675</v>
+        <v>173.3517524604625</v>
       </c>
       <c r="R8">
-        <v>1053.640524952605</v>
+        <v>1040.110514762775</v>
       </c>
       <c r="S8">
-        <v>0.06361335630334988</v>
+        <v>0.09366136167750058</v>
       </c>
       <c r="T8">
-        <v>0.05983577853525329</v>
+        <v>0.08609417600081654</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>16.585895</v>
       </c>
       <c r="I9">
-        <v>0.2550394815872238</v>
+        <v>0.3130199831101003</v>
       </c>
       <c r="J9">
-        <v>0.3140457540256751</v>
+        <v>0.3704709053190453</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>53.453339</v>
       </c>
       <c r="O9">
-        <v>0.139917139754138</v>
+        <v>0.1700322917594261</v>
       </c>
       <c r="P9">
-        <v>0.1603205907999899</v>
+        <v>0.1980860678117095</v>
       </c>
       <c r="Q9">
         <v>98.50794089482278</v>
@@ -1013,10 +1013,10 @@
         <v>886.5714680534051</v>
       </c>
       <c r="S9">
-        <v>0.03568439478806248</v>
+        <v>0.05322350509470719</v>
       </c>
       <c r="T9">
-        <v>0.05034800082362453</v>
+        <v>0.07338512487329381</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>16.585895</v>
       </c>
       <c r="I10">
-        <v>0.2550394815872238</v>
+        <v>0.3130199831101003</v>
       </c>
       <c r="J10">
-        <v>0.3140457540256751</v>
+        <v>0.3704709053190453</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.32746566666667</v>
+        <v>26.80116433333333</v>
       </c>
       <c r="N10">
-        <v>39.982397</v>
+        <v>80.403493</v>
       </c>
       <c r="O10">
-        <v>0.1046561867492399</v>
+        <v>0.2557593302123367</v>
       </c>
       <c r="P10">
-        <v>0.1199177007191215</v>
+        <v>0.2979572850761729</v>
       </c>
       <c r="Q10">
-        <v>73.68264872114611</v>
+        <v>148.1737658368039</v>
       </c>
       <c r="R10">
-        <v>663.143838490315</v>
+        <v>1333.563892531235</v>
       </c>
       <c r="S10">
-        <v>0.02669145961342181</v>
+        <v>0.08005778122331618</v>
       </c>
       <c r="T10">
-        <v>0.03765964474336174</v>
+        <v>0.1103845051485746</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>16.585895</v>
       </c>
       <c r="I11">
-        <v>0.2550394815872238</v>
+        <v>0.3130199831101003</v>
       </c>
       <c r="J11">
-        <v>0.3140457540256751</v>
+        <v>0.3704709053190453</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.857219</v>
+        <v>13.167359</v>
       </c>
       <c r="N11">
-        <v>33.714438</v>
+        <v>26.334718</v>
       </c>
       <c r="O11">
-        <v>0.1323741740449054</v>
+        <v>0.1256540528098219</v>
       </c>
       <c r="P11">
-        <v>0.1011184468504321</v>
+        <v>0.09759054968577822</v>
       </c>
       <c r="Q11">
-        <v>93.197354775335</v>
+        <v>72.79747793376833</v>
       </c>
       <c r="R11">
-        <v>559.18412865201</v>
+        <v>436.7848676026101</v>
       </c>
       <c r="S11">
-        <v>0.0337606407239496</v>
+        <v>0.03933222948824611</v>
       </c>
       <c r="T11">
-        <v>0.0317558188870491</v>
+        <v>0.03615445929267352</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>16.585895</v>
       </c>
       <c r="I12">
-        <v>0.2550394815872238</v>
+        <v>0.3130199831101003</v>
       </c>
       <c r="J12">
-        <v>0.3140457540256751</v>
+        <v>0.3704709053190453</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.53771866666667</v>
+        <v>5.16573</v>
       </c>
       <c r="N12">
-        <v>70.613156</v>
+        <v>15.49719</v>
       </c>
       <c r="O12">
-        <v>0.184833931824778</v>
+        <v>0.04929575552859776</v>
       </c>
       <c r="P12">
-        <v>0.211787385034485</v>
+        <v>0.05742910520951641</v>
       </c>
       <c r="Q12">
-        <v>130.1313767816245</v>
+        <v>28.55941845945</v>
       </c>
       <c r="R12">
-        <v>1171.18239103462</v>
+        <v>257.03476613505</v>
       </c>
       <c r="S12">
-        <v>0.04713995015231964</v>
+        <v>0.0154305565629613</v>
       </c>
       <c r="T12">
-        <v>0.06651092902628081</v>
+        <v>0.02127581259863224</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>16.585895</v>
       </c>
       <c r="I13">
-        <v>0.2550394815872238</v>
+        <v>0.3130199831101003</v>
       </c>
       <c r="J13">
-        <v>0.3140457540256751</v>
+        <v>0.3704709053190453</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>24.04189266666667</v>
+        <v>10.483258</v>
       </c>
       <c r="N13">
-        <v>72.12567800000001</v>
+        <v>31.449774</v>
       </c>
       <c r="O13">
-        <v>0.1887930437533183</v>
+        <v>0.1000400956904865</v>
       </c>
       <c r="P13">
-        <v>0.2163238354260682</v>
+        <v>0.1165457982938529</v>
       </c>
       <c r="Q13">
-        <v>132.9187691235344</v>
+        <v>57.95807214863667</v>
       </c>
       <c r="R13">
-        <v>1196.26892211181</v>
+        <v>521.6226493377301</v>
       </c>
       <c r="S13">
-        <v>0.04814968000612035</v>
+        <v>0.03131454906336889</v>
       </c>
       <c r="T13">
-        <v>0.06793558201010565</v>
+        <v>0.04317682740505451</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1.120594</v>
+        <v>2.754647666666667</v>
       </c>
       <c r="H14">
-        <v>3.361782</v>
+        <v>8.263943000000001</v>
       </c>
       <c r="I14">
-        <v>0.05169375173840545</v>
+        <v>0.1559625994426488</v>
       </c>
       <c r="J14">
-        <v>0.06365368664518507</v>
+        <v>0.1845875935374598</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.7631495</v>
+        <v>31.3552725</v>
       </c>
       <c r="N14">
-        <v>63.52629899999999</v>
+        <v>62.710545</v>
       </c>
       <c r="O14">
-        <v>0.2494255238736205</v>
+        <v>0.299218473999331</v>
       </c>
       <c r="P14">
-        <v>0.1905320411699034</v>
+        <v>0.2323911939229701</v>
       </c>
       <c r="Q14">
-        <v>35.59359475080299</v>
+        <v>86.37272822982251</v>
       </c>
       <c r="R14">
-        <v>213.561568504818</v>
+        <v>518.236369378935</v>
       </c>
       <c r="S14">
-        <v>0.01289374110834466</v>
+        <v>0.04666689100619829</v>
       </c>
       <c r="T14">
-        <v>0.01212806684449654</v>
+        <v>0.0428965312455382</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.120594</v>
+        <v>2.754647666666667</v>
       </c>
       <c r="H15">
-        <v>3.361782</v>
+        <v>8.263943000000001</v>
       </c>
       <c r="I15">
-        <v>0.05169375173840545</v>
+        <v>0.1559625994426488</v>
       </c>
       <c r="J15">
-        <v>0.06365368664518507</v>
+        <v>0.1845875935374598</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>53.453339</v>
       </c>
       <c r="O15">
-        <v>0.139917139754138</v>
+        <v>0.1700322917594261</v>
       </c>
       <c r="P15">
-        <v>0.1603205907999899</v>
+        <v>0.1980860678117095</v>
       </c>
       <c r="Q15">
-        <v>19.96649698778866</v>
+        <v>49.08170518396412</v>
       </c>
       <c r="R15">
-        <v>179.698472890098</v>
+        <v>441.7353466556771</v>
       </c>
       <c r="S15">
-        <v>0.007232841886398188</v>
+        <v>0.02651867821199097</v>
       </c>
       <c r="T15">
-        <v>0.0102049966495535</v>
+        <v>0.03656423057066154</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1.120594</v>
+        <v>2.754647666666667</v>
       </c>
       <c r="H16">
-        <v>3.361782</v>
+        <v>8.263943000000001</v>
       </c>
       <c r="I16">
-        <v>0.05169375173840545</v>
+        <v>0.1559625994426488</v>
       </c>
       <c r="J16">
-        <v>0.06365368664518507</v>
+        <v>0.1845875935374598</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.32746566666667</v>
+        <v>26.80116433333333</v>
       </c>
       <c r="N16">
-        <v>39.982397</v>
+        <v>80.403493</v>
       </c>
       <c r="O16">
-        <v>0.1046561867492399</v>
+        <v>0.2557593302123367</v>
       </c>
       <c r="P16">
-        <v>0.1199177007191215</v>
+        <v>0.2979572850761729</v>
       </c>
       <c r="Q16">
-        <v>14.93467806127267</v>
+        <v>73.82776479476657</v>
       </c>
       <c r="R16">
-        <v>134.412102551454</v>
+        <v>664.449883152899</v>
       </c>
       <c r="S16">
-        <v>0.005410070935703404</v>
+        <v>0.03988888997162681</v>
       </c>
       <c r="T16">
-        <v>0.007633203744786042</v>
+        <v>0.05499921822916564</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1.120594</v>
+        <v>2.754647666666667</v>
       </c>
       <c r="H17">
-        <v>3.361782</v>
+        <v>8.263943000000001</v>
       </c>
       <c r="I17">
-        <v>0.05169375173840545</v>
+        <v>0.1559625994426488</v>
       </c>
       <c r="J17">
-        <v>0.06365368664518507</v>
+        <v>0.1845875935374598</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.857219</v>
+        <v>13.167359</v>
       </c>
       <c r="N17">
-        <v>33.714438</v>
+        <v>26.334718</v>
       </c>
       <c r="O17">
-        <v>0.1323741740449054</v>
+        <v>0.1256540528098219</v>
       </c>
       <c r="P17">
-        <v>0.1011184468504321</v>
+        <v>0.09759054968577822</v>
       </c>
       <c r="Q17">
-        <v>18.890098468086</v>
+        <v>36.27143474551234</v>
       </c>
       <c r="R17">
-        <v>113.340590808516</v>
+        <v>217.6286084730741</v>
       </c>
       <c r="S17">
-        <v>0.006842917689653814</v>
+        <v>0.0195973327067237</v>
       </c>
       <c r="T17">
-        <v>0.006436561929865206</v>
+        <v>0.01801400471849571</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1.120594</v>
+        <v>2.754647666666667</v>
       </c>
       <c r="H18">
-        <v>3.361782</v>
+        <v>8.263943000000001</v>
       </c>
       <c r="I18">
-        <v>0.05169375173840545</v>
+        <v>0.1559625994426488</v>
       </c>
       <c r="J18">
-        <v>0.06365368664518507</v>
+        <v>0.1845875935374598</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>23.53771866666667</v>
+        <v>5.16573</v>
       </c>
       <c r="N18">
-        <v>70.613156</v>
+        <v>15.49719</v>
       </c>
       <c r="O18">
-        <v>0.184833931824778</v>
+        <v>0.04929575552859776</v>
       </c>
       <c r="P18">
-        <v>0.211787385034485</v>
+        <v>0.05742910520951641</v>
       </c>
       <c r="Q18">
-        <v>26.37622631155466</v>
+        <v>14.22976609113</v>
       </c>
       <c r="R18">
-        <v>237.386036803992</v>
+        <v>128.06789482017</v>
       </c>
       <c r="S18">
-        <v>0.009554759384583431</v>
+        <v>0.007688294173729433</v>
       </c>
       <c r="T18">
-        <v>0.01348104784238826</v>
+        <v>0.01060070032963423</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1.120594</v>
+        <v>2.754647666666667</v>
       </c>
       <c r="H19">
-        <v>3.361782</v>
+        <v>8.263943000000001</v>
       </c>
       <c r="I19">
-        <v>0.05169375173840545</v>
+        <v>0.1559625994426488</v>
       </c>
       <c r="J19">
-        <v>0.06365368664518507</v>
+        <v>0.1845875935374598</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>24.04189266666667</v>
+        <v>10.483258</v>
       </c>
       <c r="N19">
-        <v>72.12567800000001</v>
+        <v>31.449774</v>
       </c>
       <c r="O19">
-        <v>0.1887930437533183</v>
+        <v>0.1000400956904865</v>
       </c>
       <c r="P19">
-        <v>0.2163238354260682</v>
+        <v>0.1165457982938529</v>
       </c>
       <c r="Q19">
-        <v>26.94120067091067</v>
+        <v>28.87768218876467</v>
       </c>
       <c r="R19">
-        <v>242.470806038196</v>
+        <v>259.899139698882</v>
       </c>
       <c r="S19">
-        <v>0.009759420733721954</v>
+        <v>0.0156025133723796</v>
       </c>
       <c r="T19">
-        <v>0.01376980963409553</v>
+        <v>0.02151290844396449</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.5465465</v>
+        <v>6.4296675</v>
       </c>
       <c r="H20">
-        <v>17.093093</v>
+        <v>12.859335</v>
       </c>
       <c r="I20">
-        <v>0.3942579140988958</v>
+        <v>0.3640348161350763</v>
       </c>
       <c r="J20">
-        <v>0.3236492983837163</v>
+        <v>0.2872325840270232</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>31.7631495</v>
+        <v>31.3552725</v>
       </c>
       <c r="N20">
-        <v>63.52629899999999</v>
+        <v>62.710545</v>
       </c>
       <c r="O20">
-        <v>0.2494255238736205</v>
+        <v>0.299218473999331</v>
       </c>
       <c r="P20">
-        <v>0.1905320411699034</v>
+        <v>0.2323911939229701</v>
       </c>
       <c r="Q20">
-        <v>271.4652341882017</v>
+        <v>201.6039765468937</v>
       </c>
       <c r="R20">
-        <v>1085.860936752807</v>
+        <v>806.4159061875749</v>
       </c>
       <c r="S20">
-        <v>0.09833798676543797</v>
+        <v>0.1089259421665646</v>
       </c>
       <c r="T20">
-        <v>0.0616655614442566</v>
+        <v>0.06675032313561975</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.5465465</v>
+        <v>6.4296675</v>
       </c>
       <c r="H21">
-        <v>17.093093</v>
+        <v>12.859335</v>
       </c>
       <c r="I21">
-        <v>0.3942579140988958</v>
+        <v>0.3640348161350763</v>
       </c>
       <c r="J21">
-        <v>0.3236492983837163</v>
+        <v>0.2872325840270232</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>53.453339</v>
       </c>
       <c r="O21">
-        <v>0.139917139754138</v>
+        <v>0.1700322917594261</v>
       </c>
       <c r="P21">
-        <v>0.1603205907999899</v>
+        <v>0.1980860678117095</v>
       </c>
       <c r="Q21">
-        <v>152.2804824479212</v>
+        <v>114.5623988449275</v>
       </c>
       <c r="R21">
-        <v>913.682894687527</v>
+        <v>687.374393069565</v>
       </c>
       <c r="S21">
-        <v>0.05516343966615013</v>
+        <v>0.06189767406766833</v>
       </c>
       <c r="T21">
-        <v>0.05188764672887961</v>
+        <v>0.05689677311730947</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.5465465</v>
+        <v>6.4296675</v>
       </c>
       <c r="H22">
-        <v>17.093093</v>
+        <v>12.859335</v>
       </c>
       <c r="I22">
-        <v>0.3942579140988958</v>
+        <v>0.3640348161350763</v>
       </c>
       <c r="J22">
-        <v>0.3236492983837163</v>
+        <v>0.2872325840270232</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.32746566666667</v>
+        <v>26.80116433333333</v>
       </c>
       <c r="N22">
-        <v>39.982397</v>
+        <v>80.403493</v>
       </c>
       <c r="O22">
-        <v>0.1046561867492399</v>
+        <v>0.2557593302123367</v>
       </c>
       <c r="P22">
-        <v>0.1199177007191215</v>
+        <v>0.2979572850761729</v>
       </c>
       <c r="Q22">
-        <v>113.9038050473202</v>
+        <v>172.3225752761925</v>
       </c>
       <c r="R22">
-        <v>683.4228302839209</v>
+        <v>1033.935451657155</v>
       </c>
       <c r="S22">
-        <v>0.04126152988529981</v>
+        <v>0.09310530074867825</v>
       </c>
       <c r="T22">
-        <v>0.03881127970153214</v>
+        <v>0.08558304092210553</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.5465465</v>
+        <v>6.4296675</v>
       </c>
       <c r="H23">
-        <v>17.093093</v>
+        <v>12.859335</v>
       </c>
       <c r="I23">
-        <v>0.3942579140988958</v>
+        <v>0.3640348161350763</v>
       </c>
       <c r="J23">
-        <v>0.3236492983837163</v>
+        <v>0.2872325840270232</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.857219</v>
+        <v>13.167359</v>
       </c>
       <c r="N23">
-        <v>33.714438</v>
+        <v>26.334718</v>
       </c>
       <c r="O23">
-        <v>0.1323741740449054</v>
+        <v>0.1256540528098219</v>
       </c>
       <c r="P23">
-        <v>0.1011184468504321</v>
+        <v>0.09759054968577822</v>
       </c>
       <c r="Q23">
-        <v>144.0710060441835</v>
+        <v>84.66174022313251</v>
       </c>
       <c r="R23">
-        <v>576.284024176734</v>
+        <v>338.64696089253</v>
       </c>
       <c r="S23">
-        <v>0.05218956573950859</v>
+        <v>0.04574245001125071</v>
       </c>
       <c r="T23">
-        <v>0.03272691437679346</v>
+        <v>0.02803118576286368</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.5465465</v>
+        <v>6.4296675</v>
       </c>
       <c r="H24">
-        <v>17.093093</v>
+        <v>12.859335</v>
       </c>
       <c r="I24">
-        <v>0.3942579140988958</v>
+        <v>0.3640348161350763</v>
       </c>
       <c r="J24">
-        <v>0.3236492983837163</v>
+        <v>0.2872325840270232</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>23.53771866666667</v>
+        <v>5.16573</v>
       </c>
       <c r="N24">
-        <v>70.613156</v>
+        <v>15.49719</v>
       </c>
       <c r="O24">
-        <v>0.184833931824778</v>
+        <v>0.04929575552859776</v>
       </c>
       <c r="P24">
-        <v>0.211787385034485</v>
+        <v>0.05742910520951641</v>
       </c>
       <c r="Q24">
-        <v>201.1662070885847</v>
+        <v>33.213926294775</v>
       </c>
       <c r="R24">
-        <v>1206.997242531508</v>
+        <v>199.28355776865</v>
       </c>
       <c r="S24">
-        <v>0.07287224041593449</v>
+        <v>0.01794537130009276</v>
       </c>
       <c r="T24">
-        <v>0.06854483857293305</v>
+        <v>0.01649551028768918</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.5465465</v>
+        <v>6.4296675</v>
       </c>
       <c r="H25">
-        <v>17.093093</v>
+        <v>12.859335</v>
       </c>
       <c r="I25">
-        <v>0.3942579140988958</v>
+        <v>0.3640348161350763</v>
       </c>
       <c r="J25">
-        <v>0.3236492983837163</v>
+        <v>0.2872325840270232</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>24.04189266666667</v>
+        <v>10.483258</v>
       </c>
       <c r="N25">
-        <v>72.12567800000001</v>
+        <v>31.449774</v>
       </c>
       <c r="O25">
-        <v>0.1887930437533183</v>
+        <v>0.1000400956904865</v>
       </c>
       <c r="P25">
-        <v>0.2163238354260682</v>
+        <v>0.1165457982938529</v>
       </c>
       <c r="Q25">
-        <v>205.4751536236757</v>
+        <v>67.403863256715</v>
       </c>
       <c r="R25">
-        <v>1232.850921742054</v>
+        <v>404.42317954029</v>
       </c>
       <c r="S25">
-        <v>0.07443315162656484</v>
+        <v>0.03641807784082169</v>
       </c>
       <c r="T25">
-        <v>0.0700130575593215</v>
+        <v>0.0334757508014356</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>1.317076</v>
+        <v>0.4594446666666667</v>
       </c>
       <c r="H26">
-        <v>3.951228</v>
+        <v>1.378334</v>
       </c>
       <c r="I26">
-        <v>0.06075759799232559</v>
+        <v>0.02601283110740041</v>
       </c>
       <c r="J26">
-        <v>0.07481455637982515</v>
+        <v>0.03078716251441486</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>31.7631495</v>
+        <v>31.3552725</v>
       </c>
       <c r="N26">
-        <v>63.52629899999999</v>
+        <v>62.710545</v>
       </c>
       <c r="O26">
-        <v>0.2494255238736205</v>
+        <v>0.299218473999331</v>
       </c>
       <c r="P26">
-        <v>0.1905320411699034</v>
+        <v>0.2323911939229701</v>
       </c>
       <c r="Q26">
-        <v>41.83448189086199</v>
+        <v>14.406012722005</v>
       </c>
       <c r="R26">
-        <v>251.006891345172</v>
+        <v>86.43607633203</v>
       </c>
       <c r="S26">
-        <v>0.01515449570853864</v>
+        <v>0.00778351962835868</v>
       </c>
       <c r="T26">
-        <v>0.01425457013626891</v>
+        <v>0.00715466545422538</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>1.317076</v>
+        <v>0.4594446666666667</v>
       </c>
       <c r="H27">
-        <v>3.951228</v>
+        <v>1.378334</v>
       </c>
       <c r="I27">
-        <v>0.06075759799232559</v>
+        <v>0.02601283110740041</v>
       </c>
       <c r="J27">
-        <v>0.07481455637982515</v>
+        <v>0.03078716251441486</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>53.453339</v>
       </c>
       <c r="O27">
-        <v>0.139917139754138</v>
+        <v>0.1700322917594261</v>
       </c>
       <c r="P27">
-        <v>0.1603205907999899</v>
+        <v>0.1980860678117095</v>
       </c>
       <c r="Q27">
-        <v>23.46736997225467</v>
+        <v>8.186283839691777</v>
       </c>
       <c r="R27">
-        <v>211.206329750292</v>
+        <v>73.676554557226</v>
       </c>
       <c r="S27">
-        <v>0.008501029329417951</v>
+        <v>0.004423021288342182</v>
       </c>
       <c r="T27">
-        <v>0.01199431387925272</v>
+        <v>0.006098507961560504</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>1.317076</v>
+        <v>0.4594446666666667</v>
       </c>
       <c r="H28">
-        <v>3.951228</v>
+        <v>1.378334</v>
       </c>
       <c r="I28">
-        <v>0.06075759799232559</v>
+        <v>0.02601283110740041</v>
       </c>
       <c r="J28">
-        <v>0.07481455637982515</v>
+        <v>0.03078716251441486</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>13.32746566666667</v>
+        <v>26.80116433333333</v>
       </c>
       <c r="N28">
-        <v>39.982397</v>
+        <v>80.403493</v>
       </c>
       <c r="O28">
-        <v>0.1046561867492399</v>
+        <v>0.2557593302123367</v>
       </c>
       <c r="P28">
-        <v>0.1199177007191215</v>
+        <v>0.2979572850761729</v>
       </c>
       <c r="Q28">
-        <v>17.55328517039067</v>
+        <v>12.31365201340689</v>
       </c>
       <c r="R28">
-        <v>157.979566533516</v>
+        <v>110.822868120662</v>
       </c>
       <c r="S28">
-        <v>0.006358658521920068</v>
+        <v>0.006653024260955365</v>
       </c>
       <c r="T28">
-        <v>0.008971589581389711</v>
+        <v>0.009173259357993971</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>1.317076</v>
+        <v>0.4594446666666667</v>
       </c>
       <c r="H29">
-        <v>3.951228</v>
+        <v>1.378334</v>
       </c>
       <c r="I29">
-        <v>0.06075759799232559</v>
+        <v>0.02601283110740041</v>
       </c>
       <c r="J29">
-        <v>0.07481455637982515</v>
+        <v>0.03078716251441486</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>16.857219</v>
+        <v>13.167359</v>
       </c>
       <c r="N29">
-        <v>33.714438</v>
+        <v>26.334718</v>
       </c>
       <c r="O29">
-        <v>0.1323741740449054</v>
+        <v>0.1256540528098219</v>
       </c>
       <c r="P29">
-        <v>0.1011184468504321</v>
+        <v>0.09759054968577822</v>
       </c>
       <c r="Q29">
-        <v>22.202238571644</v>
+        <v>6.049672866635333</v>
       </c>
       <c r="R29">
-        <v>133.213431429864</v>
+        <v>36.298037199812</v>
       </c>
       <c r="S29">
-        <v>0.008042736851186501</v>
+        <v>0.00326861765370227</v>
       </c>
       <c r="T29">
-        <v>0.007565131742932005</v>
+        <v>0.003004536113047132</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>1.317076</v>
+        <v>0.4594446666666667</v>
       </c>
       <c r="H30">
-        <v>3.951228</v>
+        <v>1.378334</v>
       </c>
       <c r="I30">
-        <v>0.06075759799232559</v>
+        <v>0.02601283110740041</v>
       </c>
       <c r="J30">
-        <v>0.07481455637982515</v>
+        <v>0.03078716251441486</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>23.53771866666667</v>
+        <v>5.16573</v>
       </c>
       <c r="N30">
-        <v>70.613156</v>
+        <v>15.49719</v>
       </c>
       <c r="O30">
-        <v>0.184833931824778</v>
+        <v>0.04929575552859776</v>
       </c>
       <c r="P30">
-        <v>0.211787385034485</v>
+        <v>0.05742910520951641</v>
       </c>
       <c r="Q30">
-        <v>31.00096435061867</v>
+        <v>2.37336709794</v>
       </c>
       <c r="R30">
-        <v>279.008679155568</v>
+        <v>21.36030388146</v>
       </c>
       <c r="S30">
-        <v>0.01123006572515078</v>
+        <v>0.001282322162877114</v>
       </c>
       <c r="T30">
-        <v>0.01584477925819821</v>
+        <v>0.001768079195142811</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>1.317076</v>
+        <v>0.4594446666666667</v>
       </c>
       <c r="H31">
-        <v>3.951228</v>
+        <v>1.378334</v>
       </c>
       <c r="I31">
-        <v>0.06075759799232559</v>
+        <v>0.02601283110740041</v>
       </c>
       <c r="J31">
-        <v>0.07481455637982515</v>
+        <v>0.03078716251441486</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>24.04189266666667</v>
+        <v>10.483258</v>
       </c>
       <c r="N31">
-        <v>72.12567800000001</v>
+        <v>31.449774</v>
       </c>
       <c r="O31">
-        <v>0.1887930437533183</v>
+        <v>0.1000400956904865</v>
       </c>
       <c r="P31">
-        <v>0.2163238354260682</v>
+        <v>0.1165457982938529</v>
       </c>
       <c r="Q31">
-        <v>31.66499982584267</v>
+        <v>4.816476977390667</v>
       </c>
       <c r="R31">
-        <v>284.984998432584</v>
+        <v>43.348292796516</v>
       </c>
       <c r="S31">
-        <v>0.01147061185611165</v>
+        <v>0.002602326113164801</v>
       </c>
       <c r="T31">
-        <v>0.0161841717817836</v>
+        <v>0.003588114432445062</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.49222</v>
+        <v>0.7025753333333333</v>
       </c>
       <c r="H32">
-        <v>4.47666</v>
+        <v>2.107726</v>
       </c>
       <c r="I32">
-        <v>0.0688371080151093</v>
+        <v>0.03977839947260725</v>
       </c>
       <c r="J32">
-        <v>0.08476335254845027</v>
+        <v>0.04707922963364292</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>31.7631495</v>
+        <v>31.3552725</v>
       </c>
       <c r="N32">
-        <v>63.52629899999999</v>
+        <v>62.710545</v>
       </c>
       <c r="O32">
-        <v>0.2494255238736205</v>
+        <v>0.299218473999331</v>
       </c>
       <c r="P32">
-        <v>0.1905320411699034</v>
+        <v>0.2323911939229701</v>
       </c>
       <c r="Q32">
-        <v>47.39760694688999</v>
+        <v>22.029441028445</v>
       </c>
       <c r="R32">
-        <v>284.38564168134</v>
+        <v>132.17664617067</v>
       </c>
       <c r="S32">
-        <v>0.01716973172861364</v>
+        <v>0.01190243198832934</v>
       </c>
       <c r="T32">
-        <v>0.01615013457746037</v>
+        <v>0.01094079838353595</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.49222</v>
+        <v>0.7025753333333333</v>
       </c>
       <c r="H33">
-        <v>4.47666</v>
+        <v>2.107726</v>
       </c>
       <c r="I33">
-        <v>0.0688371080151093</v>
+        <v>0.03977839947260725</v>
       </c>
       <c r="J33">
-        <v>0.08476335254845027</v>
+        <v>0.04707922963364292</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>53.453339</v>
       </c>
       <c r="O33">
-        <v>0.139917139754138</v>
+        <v>0.1700322917594261</v>
       </c>
       <c r="P33">
-        <v>0.1603205907999899</v>
+        <v>0.1980860678117095</v>
       </c>
       <c r="Q33">
-        <v>26.58804717419333</v>
+        <v>12.51833248856822</v>
       </c>
       <c r="R33">
-        <v>239.29242456774</v>
+        <v>112.664992397114</v>
       </c>
       <c r="S33">
-        <v>0.009631491262420739</v>
+        <v>0.006763612424849357</v>
       </c>
       <c r="T33">
-        <v>0.01358931075875538</v>
+        <v>0.009325739473732834</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.49222</v>
+        <v>0.7025753333333333</v>
       </c>
       <c r="H34">
-        <v>4.47666</v>
+        <v>2.107726</v>
       </c>
       <c r="I34">
-        <v>0.0688371080151093</v>
+        <v>0.03977839947260725</v>
       </c>
       <c r="J34">
-        <v>0.08476335254845027</v>
+        <v>0.04707922963364292</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>13.32746566666667</v>
+        <v>26.80116433333333</v>
       </c>
       <c r="N34">
-        <v>39.982397</v>
+        <v>80.403493</v>
       </c>
       <c r="O34">
-        <v>0.1046561867492399</v>
+        <v>0.2557593302123367</v>
       </c>
       <c r="P34">
-        <v>0.1199177007191215</v>
+        <v>0.2979572850761729</v>
       </c>
       <c r="Q34">
-        <v>19.88751081711333</v>
+        <v>18.82983696521311</v>
       </c>
       <c r="R34">
-        <v>178.98759735402</v>
+        <v>169.468532686918</v>
       </c>
       <c r="S34">
-        <v>0.007204229231706875</v>
+        <v>0.0101736968060328</v>
       </c>
       <c r="T34">
-        <v>0.01016462634285444</v>
+        <v>0.01402759944511795</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.49222</v>
+        <v>0.7025753333333333</v>
       </c>
       <c r="H35">
-        <v>4.47666</v>
+        <v>2.107726</v>
       </c>
       <c r="I35">
-        <v>0.0688371080151093</v>
+        <v>0.03977839947260725</v>
       </c>
       <c r="J35">
-        <v>0.08476335254845027</v>
+        <v>0.04707922963364292</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>16.857219</v>
+        <v>13.167359</v>
       </c>
       <c r="N35">
-        <v>33.714438</v>
+        <v>26.334718</v>
       </c>
       <c r="O35">
-        <v>0.1323741740449054</v>
+        <v>0.1256540528098219</v>
       </c>
       <c r="P35">
-        <v>0.1011184468504321</v>
+        <v>0.09759054968577822</v>
       </c>
       <c r="Q35">
-        <v>25.15467933618</v>
+        <v>9.251061638544668</v>
       </c>
       <c r="R35">
-        <v>150.92807601708</v>
+        <v>55.506369831268</v>
       </c>
       <c r="S35">
-        <v>0.009112255317140031</v>
+        <v>0.004998317108021185</v>
       </c>
       <c r="T35">
-        <v>0.008571138559534907</v>
+        <v>0.004594487898730191</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.49222</v>
+        <v>0.7025753333333333</v>
       </c>
       <c r="H36">
-        <v>4.47666</v>
+        <v>2.107726</v>
       </c>
       <c r="I36">
-        <v>0.0688371080151093</v>
+        <v>0.03977839947260725</v>
       </c>
       <c r="J36">
-        <v>0.08476335254845027</v>
+        <v>0.04707922963364292</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>23.53771866666667</v>
+        <v>5.16573</v>
       </c>
       <c r="N36">
-        <v>70.613156</v>
+        <v>15.49719</v>
       </c>
       <c r="O36">
-        <v>0.184833931824778</v>
+        <v>0.04929575552859776</v>
       </c>
       <c r="P36">
-        <v>0.211787385034485</v>
+        <v>0.05742910520951641</v>
       </c>
       <c r="Q36">
-        <v>35.12345454877333</v>
+        <v>3.62931447666</v>
       </c>
       <c r="R36">
-        <v>316.11109093896</v>
+        <v>32.66383028994</v>
       </c>
       <c r="S36">
-        <v>0.01272343332987959</v>
+        <v>0.001960906255720549</v>
       </c>
       <c r="T36">
-        <v>0.01795180878299243</v>
+        <v>0.002703718031813462</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.49222</v>
+        <v>0.7025753333333333</v>
       </c>
       <c r="H37">
-        <v>4.47666</v>
+        <v>2.107726</v>
       </c>
       <c r="I37">
-        <v>0.0688371080151093</v>
+        <v>0.03977839947260725</v>
       </c>
       <c r="J37">
-        <v>0.08476335254845027</v>
+        <v>0.04707922963364292</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>24.04189266666667</v>
+        <v>10.483258</v>
       </c>
       <c r="N37">
-        <v>72.12567800000001</v>
+        <v>31.449774</v>
       </c>
       <c r="O37">
-        <v>0.1887930437533183</v>
+        <v>0.1000400956904865</v>
       </c>
       <c r="P37">
-        <v>0.2163238354260682</v>
+        <v>0.1165457982938529</v>
       </c>
       <c r="Q37">
-        <v>35.87579307505334</v>
+        <v>7.365278483769334</v>
       </c>
       <c r="R37">
-        <v>322.88213767548</v>
+        <v>66.287506353924</v>
       </c>
       <c r="S37">
-        <v>0.01299596714534843</v>
+        <v>0.003979434889654026</v>
       </c>
       <c r="T37">
-        <v>0.01833633352685276</v>
+        <v>0.005486886400712528</v>
       </c>
     </row>
   </sheetData>
